--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE317EBA-6746-475A-AF40-AAE1DFB7EABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3C4286-FFFE-46DF-8DE7-62AA3A0405F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ErrorCode</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>wrong password</t>
+  </si>
+  <si>
+    <t>user does not exists</t>
+  </si>
+  <si>
+    <t>totp not valid</t>
+  </si>
+  <si>
+    <t>login valid, awaiting totp auth</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B8:B9"/>
+      <selection activeCell="E18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,6 +422,30 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -1,31 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coufalkrystof\Desktop\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3C4286-FFFE-46DF-8DE7-62AA3A0405F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F7938-F7EB-44C6-BAD5-0B365D34C226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>ErrorCode</t>
   </si>
@@ -55,16 +59,97 @@
   </si>
   <si>
     <t>login valid, awaiting totp auth</t>
+  </si>
+  <si>
+    <t>Auth Error Codes</t>
+  </si>
+  <si>
+    <t>A#</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>successfully logged in</t>
+  </si>
+  <si>
+    <t>user does not exist</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>A12</t>
+  </si>
+  <si>
+    <t>A13</t>
+  </si>
+  <si>
+    <t>A14</t>
+  </si>
+  <si>
+    <t>A15</t>
+  </si>
+  <si>
+    <t>user does not have account</t>
+  </si>
+  <si>
+    <t>invalid or expired totp token</t>
+  </si>
+  <si>
+    <t>token is not totp token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,7 +181,29 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -374,17 +481,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="D18:E18"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B7" sqref="B3:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -406,7 +513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -414,7 +521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -422,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -430,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -438,7 +545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -449,4 +556,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -1,50 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coufalkrystof\Desktop\CtrlPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111F7938-F7EB-44C6-BAD5-0B365D34C226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DECB938-6466-4E94-86D3-D5605EC1C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37965" yWindow="5955" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="List1" sheetId="1" r:id="rId1"/>
-    <sheet name="List2" sheetId="2" r:id="rId2"/>
+    <sheet name="Auth" sheetId="2" r:id="rId1"/>
+    <sheet name="Payments" sheetId="6" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Transactions" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
-  <si>
-    <t>ErrorCode</t>
-  </si>
-  <si>
-    <t>StandardMessage</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>vše proběhlo bez chyby</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -52,9 +36,6 @@
     <t>wrong password</t>
   </si>
   <si>
-    <t>user does not exists</t>
-  </si>
-  <si>
     <t>totp not valid</t>
   </si>
   <si>
@@ -134,6 +115,180 @@
   </si>
   <si>
     <t>token is not totp token</t>
+  </si>
+  <si>
+    <t>HTTP error code received</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Register Error Codes</t>
+  </si>
+  <si>
+    <t>R#</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>successfully registered</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>operation succesful</t>
+  </si>
+  <si>
+    <t>T#</t>
+  </si>
+  <si>
+    <t>Transactions Error Codes</t>
+  </si>
+  <si>
+    <t>Payments Error Codes</t>
+  </si>
+  <si>
+    <t>P#</t>
+  </si>
+  <si>
+    <t>P0</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
   </si>
 </sst>
 </file>
@@ -181,7 +336,112 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -478,92 +738,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B7" sqref="B3:B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,157 +754,587 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5244BA-F464-4FCB-913B-51EE1447A6F5}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C2 C4:C1048576">
+    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C2 C4:C1048576">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C3)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C3)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ERROR",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DECB938-6466-4E94-86D3-D5605EC1C4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E9023-256D-44BF-BFCD-43F5BD86C280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37965" yWindow="5955" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="2970" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>P15</t>
+  </si>
+  <si>
+    <t>username can not be blank</t>
+  </si>
+  <si>
+    <t>password can not be blank</t>
   </si>
 </sst>
 </file>
@@ -336,49 +342,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -741,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,11 +841,23 @@
       <c r="A12" t="s">
         <v>20</v>
       </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -906,13 +882,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1040,26 +1016,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C2 C4:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="4" operator="containsText" text="OK">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="6" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH("WARNING",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1181,13 +1146,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1199,7 +1164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1315,26 +1280,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1:C2 C4:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="OK">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH("WARNING",C3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283E9023-256D-44BF-BFCD-43F5BD86C280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48024778-4B72-49A2-9183-DBB4F959E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2970" windowWidth="29040" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3930" windowWidth="28800" windowHeight="14985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -295,6 +295,21 @@
   </si>
   <si>
     <t>password can not be blank</t>
+  </si>
+  <si>
+    <t>username can not be empty</t>
+  </si>
+  <si>
+    <t>password can not be empty</t>
+  </si>
+  <si>
+    <t>confirm password can not be empty</t>
+  </si>
+  <si>
+    <t>passwords do not match</t>
+  </si>
+  <si>
+    <t>code can not be empty</t>
   </si>
 </sst>
 </file>
@@ -705,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:C17"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,25 +1087,55 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48024778-4B72-49A2-9183-DBB4F959E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261ED89E-B74D-4DA8-9A70-5B8B66B06858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3930" windowWidth="28800" windowHeight="14985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3930" windowWidth="28800" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -310,6 +310,12 @@
   </si>
   <si>
     <t>code can not be empty</t>
+  </si>
+  <si>
+    <t>http return is null</t>
+  </si>
+  <si>
+    <t>failed to parse http response</t>
   </si>
 </sst>
 </file>
@@ -720,8 +726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,10 +884,22 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1050,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CtrlPay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{261ED89E-B74D-4DA8-9A70-5B8B66B06858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956343AB-4C47-4631-B005-882B5DBE5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="3930" windowWidth="28800" windowHeight="14985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5310" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -316,6 +316,18 @@
   </si>
   <si>
     <t>failed to parse http response</t>
+  </si>
+  <si>
+    <t>payment does not exist</t>
+  </si>
+  <si>
+    <t>user does not have permission to pay payment</t>
+  </si>
+  <si>
+    <t>payment is already paid</t>
+  </si>
+  <si>
+    <t>WARNING</t>
   </si>
 </sst>
 </file>
@@ -726,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9E7729A-1ECD-4D18-AD79-215030F792F8}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -934,7 +946,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -981,15 +993,33 @@
       <c r="A4" t="s">
         <v>73</v>
       </c>
+      <c r="B4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>74</v>
       </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956343AB-4C47-4631-B005-882B5DBE5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B94ED7C-9E62-4EDF-9025-2A7459C45EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5310" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
-    <sheet name="Payments" sheetId="6" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="7" r:id="rId4"/>
+    <sheet name="Customer" sheetId="8" r:id="rId2"/>
+    <sheet name="Payments" sheetId="6" r:id="rId3"/>
+    <sheet name="Register" sheetId="3" r:id="rId4"/>
+    <sheet name="Transactions" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -328,6 +329,36 @@
   </si>
   <si>
     <t>WARNING</t>
+  </si>
+  <si>
+    <t>Customer Error Codes</t>
+  </si>
+  <si>
+    <t>Z#</t>
+  </si>
+  <si>
+    <t>Z0</t>
+  </si>
+  <si>
+    <t>Z1</t>
+  </si>
+  <si>
+    <t>Z2</t>
+  </si>
+  <si>
+    <t>Z3</t>
+  </si>
+  <si>
+    <t>Z4</t>
+  </si>
+  <si>
+    <t>Z5</t>
+  </si>
+  <si>
+    <t>Z6</t>
+  </si>
+  <si>
+    <t>Z7</t>
   </si>
 </sst>
 </file>
@@ -375,7 +406,49 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -739,7 +812,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,13 +1000,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -942,11 +1015,111 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640EA26-FE1B-40CD-A6DF-4C2C090AC62C}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1 C3:C1048576">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5244BA-F464-4FCB-913B-51EE1447A6F5}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,13 +1253,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1094,7 +1267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1239,13 +1412,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1253,11 +1426,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1374,13 +1547,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B94ED7C-9E62-4EDF-9025-2A7459C45EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF7215-C2E9-4604-990F-60ACE2FC435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>Z7</t>
+  </si>
+  <si>
+    <t>customer not found</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,6 +1057,12 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9EF7215-C2E9-4604-990F-60ACE2FC435E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956343AB-4C47-4631-B005-882B5DBE5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="5310" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
-    <sheet name="Customer" sheetId="8" r:id="rId2"/>
-    <sheet name="Payments" sheetId="6" r:id="rId3"/>
-    <sheet name="Register" sheetId="3" r:id="rId4"/>
-    <sheet name="Transactions" sheetId="7" r:id="rId5"/>
+    <sheet name="Payments" sheetId="6" r:id="rId2"/>
+    <sheet name="Register" sheetId="3" r:id="rId3"/>
+    <sheet name="Transactions" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -329,39 +328,6 @@
   </si>
   <si>
     <t>WARNING</t>
-  </si>
-  <si>
-    <t>Customer Error Codes</t>
-  </si>
-  <si>
-    <t>Z#</t>
-  </si>
-  <si>
-    <t>Z0</t>
-  </si>
-  <si>
-    <t>Z1</t>
-  </si>
-  <si>
-    <t>Z2</t>
-  </si>
-  <si>
-    <t>Z3</t>
-  </si>
-  <si>
-    <t>Z4</t>
-  </si>
-  <si>
-    <t>Z5</t>
-  </si>
-  <si>
-    <t>Z6</t>
-  </si>
-  <si>
-    <t>Z7</t>
-  </si>
-  <si>
-    <t>customer not found</t>
   </si>
 </sst>
 </file>
@@ -409,49 +375,7 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -815,7 +739,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,13 +927,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1018,117 +942,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6640EA26-FE1B-40CD-A6DF-4C2C090AC62C}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C1 C3:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
-      <formula>NOT(ISERROR(SEARCH("WARNING",C2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
-      <formula>NOT(ISERROR(SEARCH("ERROR",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5244BA-F464-4FCB-913B-51EE1447A6F5}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,13 +1080,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1276,7 +1094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1421,13 +1239,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1435,11 +1253,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1556,13 +1374,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ErrorCodes.xlsx
+++ b/ErrorCodes.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zamos\Documents\GitHub\CtrlPay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956343AB-4C47-4631-B005-882B5DBE5739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E95975F-B2E0-45DB-B70D-8C0CF00E47ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5310" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38115" yWindow="5595" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auth" sheetId="2" r:id="rId1"/>
-    <sheet name="Payments" sheetId="6" r:id="rId2"/>
-    <sheet name="Register" sheetId="3" r:id="rId3"/>
-    <sheet name="Transactions" sheetId="7" r:id="rId4"/>
+    <sheet name="Account" sheetId="9" r:id="rId2"/>
+    <sheet name="Payments" sheetId="6" r:id="rId3"/>
+    <sheet name="Register" sheetId="3" r:id="rId4"/>
+    <sheet name="Transactions" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="110">
   <si>
     <t>user with the same username already exists</t>
   </si>
@@ -328,6 +329,36 @@
   </si>
   <si>
     <t>WARNING</t>
+  </si>
+  <si>
+    <t>Account Error Codes</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>operation successful</t>
   </si>
 </sst>
 </file>
@@ -375,7 +406,28 @@
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -927,13 +979,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -942,6 +994,96 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE96D01-0104-40B3-963C-7A19003E98D6}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+      <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
+      <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5244BA-F464-4FCB-913B-51EE1447A6F5}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1080,13 +1222,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1094,7 +1236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49F1D35A-F5B1-4F7C-BEBF-5839D23DDC9A}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -1239,13 +1381,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1253,11 +1395,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7718E203-9D51-4778-8682-1A55B2CB558B}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C3"/>
     </sheetView>
   </sheetViews>
@@ -1374,13 +1516,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="WARNING">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="WARNING">
       <formula>NOT(ISERROR(SEARCH("WARNING",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ERROR">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="ERROR">
       <formula>NOT(ISERROR(SEARCH("ERROR",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
